--- a/coordinates/regions.xlsx
+++ b/coordinates/regions.xlsx
@@ -33,19 +33,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -81,18 +75,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -409,19 +400,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -431,7 +422,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -443,68 +434,68 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4"/>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+      <c r="A4" s="1"/>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D4" s="2">
-        <v>214</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="4"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="D5" s="2">
-        <v>214</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+      <c r="A6" s="1"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="D6" s="2">
-        <v>222</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="4"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+      <c r="A7" s="1"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="D7" s="2">
-        <v>222</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+      <c r="A8" s="1"/>
       <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="D8" s="2">
-        <v>238</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="4"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+      <c r="A9" s="1"/>
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -515,8 +506,8 @@
         <v>238</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="4"/>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+      <c r="A10" s="1"/>
       <c r="B10" s="2">
         <v>7</v>
       </c>
@@ -527,8 +518,8 @@
         <v>245</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="4"/>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+      <c r="A11" s="1"/>
       <c r="B11" s="2">
         <v>8</v>
       </c>
@@ -539,8 +530,8 @@
         <v>249</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="4"/>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+      <c r="A12" s="1"/>
       <c r="B12" s="2">
         <v>9</v>
       </c>
@@ -551,8 +542,8 @@
         <v>250</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="4"/>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+      <c r="A13" s="1"/>
       <c r="B13" s="2">
         <v>10</v>
       </c>
@@ -563,8 +554,8 @@
         <v>264</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="4"/>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
+      <c r="A14" s="1"/>
       <c r="B14" s="2">
         <v>11</v>
       </c>
@@ -575,8 +566,8 @@
         <v>266</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="4"/>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+      <c r="A15" s="1"/>
       <c r="B15" s="2">
         <v>12</v>
       </c>
@@ -587,8 +578,8 @@
         <v>280</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="4"/>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+      <c r="A16" s="1"/>
       <c r="B16" s="2">
         <v>13</v>
       </c>
@@ -599,8 +590,8 @@
         <v>285</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="4"/>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
+      <c r="A17" s="1"/>
       <c r="B17" s="2">
         <v>14</v>
       </c>
@@ -611,8 +602,8 @@
         <v>281</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="4"/>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
+      <c r="A18" s="1"/>
       <c r="B18" s="2">
         <v>15</v>
       </c>
@@ -623,8 +614,8 @@
         <v>292</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="4"/>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
+      <c r="A19" s="1"/>
       <c r="B19" s="2">
         <v>16</v>
       </c>
@@ -635,8 +626,8 @@
         <v>293</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="4"/>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
+      <c r="A20" s="1"/>
       <c r="B20" s="2">
         <v>17</v>
       </c>
@@ -647,8 +638,8 @@
         <v>293</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="4"/>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
+      <c r="A21" s="1"/>
       <c r="B21" s="2">
         <v>18</v>
       </c>
@@ -659,8 +650,8 @@
         <v>299</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="4"/>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
+      <c r="A22" s="1"/>
       <c r="B22" s="2">
         <v>19</v>
       </c>
@@ -671,8 +662,8 @@
         <v>295</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="4"/>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
+      <c r="A23" s="1"/>
       <c r="B23" s="2">
         <v>20</v>
       </c>
@@ -683,8 +674,8 @@
         <v>303</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="4"/>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
+      <c r="A24" s="1"/>
       <c r="B24" s="2">
         <v>21</v>
       </c>
@@ -695,8 +686,8 @@
         <v>282</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="4"/>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
+      <c r="A25" s="1"/>
       <c r="B25" s="2">
         <v>22</v>
       </c>
@@ -707,8 +698,8 @@
         <v>292</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="4"/>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
+      <c r="A26" s="1"/>
       <c r="B26" s="2">
         <v>23</v>
       </c>
@@ -719,8 +710,8 @@
         <v>285</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="4"/>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
+      <c r="A27" s="1"/>
       <c r="B27" s="2">
         <v>24</v>
       </c>
@@ -731,8 +722,8 @@
         <v>274</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
-      <c r="A28" s="4"/>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
+      <c r="A28" s="1"/>
       <c r="B28" s="2">
         <v>25</v>
       </c>
@@ -743,8 +734,8 @@
         <v>262</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
-      <c r="A29" s="4"/>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
+      <c r="A29" s="1"/>
       <c r="B29" s="2">
         <v>26</v>
       </c>
@@ -755,8 +746,8 @@
         <v>255</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
-      <c r="A30" s="4"/>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25">
+      <c r="A30" s="1"/>
       <c r="B30" s="2">
         <v>27</v>
       </c>
@@ -767,8 +758,8 @@
         <v>243</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
-      <c r="A31" s="4"/>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="20.25">
+      <c r="A31" s="1"/>
       <c r="B31" s="2">
         <v>28</v>
       </c>
@@ -779,8 +770,8 @@
         <v>252</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
-      <c r="A32" s="4"/>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.25">
+      <c r="A32" s="1"/>
       <c r="B32" s="2">
         <v>29</v>
       </c>
@@ -791,8 +782,8 @@
         <v>233</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
-      <c r="A33" s="4"/>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.25">
+      <c r="A33" s="1"/>
       <c r="B33" s="2">
         <v>30</v>
       </c>
@@ -803,8 +794,8 @@
         <v>224</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
-      <c r="A34" s="4"/>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.25">
+      <c r="A34" s="1"/>
       <c r="B34" s="2">
         <v>31</v>
       </c>
@@ -815,8 +806,8 @@
         <v>210</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
-      <c r="A35" s="4"/>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.25">
+      <c r="A35" s="1"/>
       <c r="B35" s="2">
         <v>32</v>
       </c>
@@ -828,7 +819,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
-      <c r="A36" s="4"/>
+      <c r="A36" s="1"/>
       <c r="B36" s="2">
         <v>33</v>
       </c>
@@ -840,7 +831,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
-      <c r="A37" s="4"/>
+      <c r="A37" s="1"/>
       <c r="B37" s="2">
         <v>34</v>
       </c>
@@ -848,7 +839,7 @@
       <c r="D37" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
-      <c r="A38" s="4"/>
+      <c r="A38" s="1"/>
       <c r="B38" s="2">
         <v>35</v>
       </c>
@@ -856,7 +847,7 @@
       <c r="D38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
-      <c r="A39" s="4"/>
+      <c r="A39" s="1"/>
       <c r="B39" s="2">
         <v>36</v>
       </c>
@@ -864,7 +855,7 @@
       <c r="D39" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
-      <c r="A40" s="4"/>
+      <c r="A40" s="1"/>
       <c r="B40" s="2">
         <v>37</v>
       </c>
@@ -872,7 +863,7 @@
       <c r="D40" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="4"/>
+      <c r="A41" s="1"/>
       <c r="B41" s="2">
         <v>38</v>
       </c>
@@ -880,7 +871,7 @@
       <c r="D41" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="4"/>
+      <c r="A42" s="1"/>
       <c r="B42" s="2">
         <v>39</v>
       </c>
@@ -888,7 +879,7 @@
       <c r="D42" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="4"/>
+      <c r="A43" s="1"/>
       <c r="B43" s="2">
         <v>40</v>
       </c>
@@ -896,7 +887,7 @@
       <c r="D43" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="4"/>
+      <c r="A44" s="1"/>
       <c r="B44" s="2">
         <v>41</v>
       </c>
@@ -904,7 +895,7 @@
       <c r="D44" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="4"/>
+      <c r="A45" s="1"/>
       <c r="B45" s="2">
         <v>42</v>
       </c>
@@ -912,7 +903,7 @@
       <c r="D45" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="4"/>
+      <c r="A46" s="1"/>
       <c r="B46" s="2">
         <v>43</v>
       </c>
@@ -920,7 +911,7 @@
       <c r="D46" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="4"/>
+      <c r="A47" s="1"/>
       <c r="B47" s="2">
         <v>44</v>
       </c>

--- a/coordinates/regions.xlsx
+++ b/coordinates/regions.xlsx
@@ -33,19 +33,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -81,18 +75,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -409,19 +400,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -431,7 +422,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -443,92 +434,92 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4"/>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+      <c r="A4" s="1"/>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D4" s="2">
         <v>214</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="4"/>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D5" s="2">
-        <v>214</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+      <c r="A6" s="1"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D6" s="2">
-        <v>222</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="4"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+      <c r="A7" s="1"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D7" s="2">
-        <v>222</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+      <c r="A8" s="1"/>
       <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D8" s="2">
-        <v>238</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="4"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+      <c r="A9" s="1"/>
       <c r="B9" s="2">
         <v>6</v>
       </c>
       <c r="C9" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D9" s="2">
-        <v>238</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="4"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+      <c r="A10" s="1"/>
       <c r="B10" s="2">
         <v>7</v>
       </c>
       <c r="C10" s="2">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="D10" s="2">
-        <v>245</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="4"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+      <c r="A11" s="1"/>
       <c r="B11" s="2">
         <v>8</v>
       </c>
@@ -539,8 +530,8 @@
         <v>249</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="4"/>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+      <c r="A12" s="1"/>
       <c r="B12" s="2">
         <v>9</v>
       </c>
@@ -551,8 +542,8 @@
         <v>250</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="4"/>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+      <c r="A13" s="1"/>
       <c r="B13" s="2">
         <v>10</v>
       </c>
@@ -563,8 +554,8 @@
         <v>264</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="4"/>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
+      <c r="A14" s="1"/>
       <c r="B14" s="2">
         <v>11</v>
       </c>
@@ -575,8 +566,8 @@
         <v>266</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="4"/>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+      <c r="A15" s="1"/>
       <c r="B15" s="2">
         <v>12</v>
       </c>
@@ -587,8 +578,8 @@
         <v>280</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="4"/>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+      <c r="A16" s="1"/>
       <c r="B16" s="2">
         <v>13</v>
       </c>
@@ -599,8 +590,8 @@
         <v>285</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="4"/>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
+      <c r="A17" s="1"/>
       <c r="B17" s="2">
         <v>14</v>
       </c>
@@ -611,8 +602,8 @@
         <v>281</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="4"/>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
+      <c r="A18" s="1"/>
       <c r="B18" s="2">
         <v>15</v>
       </c>
@@ -623,8 +614,8 @@
         <v>292</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="4"/>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
+      <c r="A19" s="1"/>
       <c r="B19" s="2">
         <v>16</v>
       </c>
@@ -635,8 +626,8 @@
         <v>293</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="4"/>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
+      <c r="A20" s="1"/>
       <c r="B20" s="2">
         <v>17</v>
       </c>
@@ -647,8 +638,8 @@
         <v>293</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="4"/>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
+      <c r="A21" s="1"/>
       <c r="B21" s="2">
         <v>18</v>
       </c>
@@ -659,8 +650,8 @@
         <v>299</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="4"/>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
+      <c r="A22" s="1"/>
       <c r="B22" s="2">
         <v>19</v>
       </c>
@@ -671,8 +662,8 @@
         <v>295</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="4"/>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
+      <c r="A23" s="1"/>
       <c r="B23" s="2">
         <v>20</v>
       </c>
@@ -683,8 +674,8 @@
         <v>303</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="4"/>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
+      <c r="A24" s="1"/>
       <c r="B24" s="2">
         <v>21</v>
       </c>
@@ -695,8 +686,8 @@
         <v>282</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="4"/>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
+      <c r="A25" s="1"/>
       <c r="B25" s="2">
         <v>22</v>
       </c>
@@ -707,8 +698,8 @@
         <v>292</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="4"/>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
+      <c r="A26" s="1"/>
       <c r="B26" s="2">
         <v>23</v>
       </c>
@@ -719,8 +710,8 @@
         <v>285</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="4"/>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
+      <c r="A27" s="1"/>
       <c r="B27" s="2">
         <v>24</v>
       </c>
@@ -731,8 +722,8 @@
         <v>274</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
-      <c r="A28" s="4"/>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
+      <c r="A28" s="1"/>
       <c r="B28" s="2">
         <v>25</v>
       </c>
@@ -743,8 +734,8 @@
         <v>262</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
-      <c r="A29" s="4"/>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
+      <c r="A29" s="1"/>
       <c r="B29" s="2">
         <v>26</v>
       </c>
@@ -755,8 +746,8 @@
         <v>255</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
-      <c r="A30" s="4"/>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25">
+      <c r="A30" s="1"/>
       <c r="B30" s="2">
         <v>27</v>
       </c>
@@ -767,8 +758,8 @@
         <v>243</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
-      <c r="A31" s="4"/>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="20.25">
+      <c r="A31" s="1"/>
       <c r="B31" s="2">
         <v>28</v>
       </c>
@@ -779,8 +770,8 @@
         <v>252</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
-      <c r="A32" s="4"/>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.25">
+      <c r="A32" s="1"/>
       <c r="B32" s="2">
         <v>29</v>
       </c>
@@ -791,8 +782,8 @@
         <v>233</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
-      <c r="A33" s="4"/>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.25">
+      <c r="A33" s="1"/>
       <c r="B33" s="2">
         <v>30</v>
       </c>
@@ -803,8 +794,8 @@
         <v>224</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
-      <c r="A34" s="4"/>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.25">
+      <c r="A34" s="1"/>
       <c r="B34" s="2">
         <v>31</v>
       </c>
@@ -815,8 +806,8 @@
         <v>210</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
-      <c r="A35" s="4"/>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.25">
+      <c r="A35" s="1"/>
       <c r="B35" s="2">
         <v>32</v>
       </c>
@@ -828,7 +819,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
-      <c r="A36" s="4"/>
+      <c r="A36" s="1"/>
       <c r="B36" s="2">
         <v>33</v>
       </c>
@@ -840,7 +831,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
-      <c r="A37" s="4"/>
+      <c r="A37" s="1"/>
       <c r="B37" s="2">
         <v>34</v>
       </c>
@@ -848,7 +839,7 @@
       <c r="D37" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
-      <c r="A38" s="4"/>
+      <c r="A38" s="1"/>
       <c r="B38" s="2">
         <v>35</v>
       </c>
@@ -856,7 +847,7 @@
       <c r="D38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
-      <c r="A39" s="4"/>
+      <c r="A39" s="1"/>
       <c r="B39" s="2">
         <v>36</v>
       </c>
@@ -864,7 +855,7 @@
       <c r="D39" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
-      <c r="A40" s="4"/>
+      <c r="A40" s="1"/>
       <c r="B40" s="2">
         <v>37</v>
       </c>
@@ -872,7 +863,7 @@
       <c r="D40" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="4"/>
+      <c r="A41" s="1"/>
       <c r="B41" s="2">
         <v>38</v>
       </c>
@@ -880,7 +871,7 @@
       <c r="D41" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="4"/>
+      <c r="A42" s="1"/>
       <c r="B42" s="2">
         <v>39</v>
       </c>
@@ -888,7 +879,7 @@
       <c r="D42" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="4"/>
+      <c r="A43" s="1"/>
       <c r="B43" s="2">
         <v>40</v>
       </c>
@@ -896,7 +887,7 @@
       <c r="D43" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="4"/>
+      <c r="A44" s="1"/>
       <c r="B44" s="2">
         <v>41</v>
       </c>
@@ -904,7 +895,7 @@
       <c r="D44" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="4"/>
+      <c r="A45" s="1"/>
       <c r="B45" s="2">
         <v>42</v>
       </c>
@@ -912,7 +903,7 @@
       <c r="D45" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="4"/>
+      <c r="A46" s="1"/>
       <c r="B46" s="2">
         <v>43</v>
       </c>
@@ -920,7 +911,7 @@
       <c r="D46" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="4"/>
+      <c r="A47" s="1"/>
       <c r="B47" s="2">
         <v>44</v>
       </c>
